--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0C5623-0108-4548-8E12-7D118E34DBAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE1DA24-6391-4C4E-9C4C-B2EA9D048F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6660" yWindow="4824" windowWidth="14172" windowHeight="11052" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8594" uniqueCount="7850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8639" uniqueCount="7851">
   <si>
     <t>drafted</t>
   </si>
@@ -23549,9 +23549,6 @@
     <t>ds9</t>
   </si>
   <si>
-    <t>drjames</t>
-  </si>
-  <si>
     <t>DH</t>
   </si>
   <si>
@@ -23577,6 +23574,12 @@
   </si>
   <si>
     <t>Spencer Torkelson</t>
+  </si>
+  <si>
+    <t>Jasson Dominguez</t>
+  </si>
+  <si>
+    <t>lacugna</t>
   </si>
 </sst>
 </file>
@@ -23586,13 +23589,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0;[Red]\$#,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF3E3F40"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -23615,13 +23624,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23903,10 +23913,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E474"/>
+  <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G219" sqref="G219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23916,21 +23926,21 @@
     <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="1025" width="8.88671875" customWidth="1"/>
+    <col min="6" max="1024" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7841</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7842</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7843</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
         <v>7844</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7845</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -23940,7 +23950,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2">
@@ -23957,7 +23967,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>502</v>
       </c>
       <c r="C3" s="2">
@@ -23974,7 +23984,7 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>473</v>
       </c>
       <c r="C4" s="2">
@@ -23991,7 +24001,7 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>387</v>
       </c>
       <c r="C5" s="2">
@@ -24008,7 +24018,7 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>432</v>
       </c>
       <c r="C6" s="2">
@@ -24025,7 +24035,7 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2">
@@ -24042,7 +24052,7 @@
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>319</v>
       </c>
       <c r="C8" s="2">
@@ -24059,7 +24069,7 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C9" s="2">
@@ -24076,7 +24086,7 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>618</v>
       </c>
       <c r="C10" s="2">
@@ -24093,14 +24103,14 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>7841</v>
+        <v>7840</v>
       </c>
       <c r="E11" s="3">
         <v>44192</v>
@@ -24110,8 +24120,8 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>7847</v>
+      <c r="B12" s="1" t="s">
+        <v>7846</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -24127,7 +24137,7 @@
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>1965</v>
       </c>
       <c r="C13" s="2">
@@ -24213,7 +24223,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7848</v>
+        <v>7847</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -24338,7 +24348,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>7841</v>
+        <v>7840</v>
       </c>
       <c r="E25" s="3">
         <v>44192</v>
@@ -24944,7 +24954,7 @@
         <v>92</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>7846</v>
+        <v>7845</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -24967,7 +24977,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>7831</v>
       </c>
       <c r="E62" s="3">
         <v>44192</v>
@@ -25182,7 +25192,7 @@
         <v>79</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>7849</v>
+        <v>7848</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -25324,7 +25334,7 @@
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>7841</v>
+        <v>7840</v>
       </c>
       <c r="E83" s="3">
         <v>44192</v>
@@ -25332,7 +25342,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>7840</v>
+        <v>7850</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>454</v>
@@ -25349,7 +25359,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>7840</v>
+        <v>7850</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>116</v>
@@ -25366,7 +25376,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>7840</v>
+        <v>7850</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>105</v>
@@ -25383,7 +25393,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>7840</v>
+        <v>7850</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>110</v>
@@ -25400,7 +25410,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>7840</v>
+        <v>7850</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>106</v>
@@ -25417,7 +25427,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>7840</v>
+        <v>7850</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>112</v>
@@ -25434,7 +25444,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>7840</v>
+        <v>7850</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>113</v>
@@ -25451,7 +25461,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>7840</v>
+        <v>7850</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>503</v>
@@ -25468,7 +25478,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>7840</v>
+        <v>7850</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>108</v>
@@ -25834,7 +25844,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>7841</v>
+        <v>7840</v>
       </c>
       <c r="E113" s="3">
         <v>44192</v>
@@ -26881,7 +26891,7 @@
       <c r="A175" t="s">
         <v>178</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C175" s="2">
@@ -27000,7 +27010,7 @@
       <c r="A182" t="s">
         <v>178</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C182" s="2">
@@ -27183,7 +27193,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -27200,7 +27210,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>190</v>
       </c>
@@ -27217,7 +27227,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>203</v>
       </c>
@@ -27234,7 +27244,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>203</v>
       </c>
@@ -27251,7 +27261,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -27268,7 +27278,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>203</v>
       </c>
@@ -27285,7 +27295,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>203</v>
       </c>
@@ -27302,7 +27312,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -27319,7 +27329,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -27336,7 +27346,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -27353,7 +27363,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -27370,7 +27380,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -27387,7 +27397,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -27404,7 +27414,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -27421,15 +27431,279 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="224" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D272" s="2"/>
-    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>79</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" s="2">
+        <v>12</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E207" s="3">
+        <v>44196</v>
+      </c>
+      <c r="F207" s="4"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>117</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C208" s="2">
+        <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" s="3">
+        <v>44196</v>
+      </c>
+      <c r="F208" s="4"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>7850</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C209" s="2">
+        <v>4</v>
+      </c>
+      <c r="D209" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" s="3">
+        <v>44196</v>
+      </c>
+      <c r="F209" s="4"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>7850</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C210" s="2">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" s="3">
+        <v>44196</v>
+      </c>
+      <c r="F210" s="4"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>141</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C211" s="2">
+        <v>3</v>
+      </c>
+      <c r="D211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" s="3">
+        <v>44196</v>
+      </c>
+      <c r="F211" s="4"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>54</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C212" s="2">
+        <v>19</v>
+      </c>
+      <c r="D212" t="s">
+        <v>81</v>
+      </c>
+      <c r="E212" s="3">
+        <v>44196</v>
+      </c>
+      <c r="F212" s="4"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>154</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>7849</v>
+      </c>
+      <c r="C213" s="2">
+        <v>0</v>
+      </c>
+      <c r="D213" t="s">
+        <v>26</v>
+      </c>
+      <c r="E213" s="3">
+        <v>44196</v>
+      </c>
+      <c r="F213" s="4"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C214" s="2">
+        <v>26</v>
+      </c>
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="3">
+        <v>44208</v>
+      </c>
+      <c r="F214" s="4"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C215" s="2">
+        <v>44</v>
+      </c>
+      <c r="D215" t="s">
+        <v>81</v>
+      </c>
+      <c r="E215" s="3">
+        <v>44208</v>
+      </c>
+      <c r="F215" s="4"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>7839</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C216" s="2">
+        <v>16</v>
+      </c>
+      <c r="D216" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216" s="3">
+        <v>44208</v>
+      </c>
+      <c r="F216" s="4"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>190</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C217" s="2">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="3">
+        <v>44208</v>
+      </c>
+      <c r="F217" s="4"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>203</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C218" s="2">
+        <v>15</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7830</v>
+      </c>
+      <c r="E218" s="3">
+        <v>44208</v>
+      </c>
+      <c r="F218" s="4"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>7850</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C219" s="2">
+        <v>47</v>
+      </c>
+      <c r="D219" t="s">
+        <v>7830</v>
+      </c>
+      <c r="E219" s="3">
+        <v>44208</v>
+      </c>
+      <c r="F219" s="4"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>141</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C220" s="2">
+        <v>18</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" s="3">
+        <v>44208</v>
+      </c>
+      <c r="F220" s="4"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>117</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C221" s="2">
+        <v>42</v>
+      </c>
+      <c r="D221" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221" s="3">
+        <v>44208</v>
+      </c>
+      <c r="F221" s="4"/>
+    </row>
+    <row r="224" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A474" s="2"/>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E474">
     <sortCondition ref="A2:A474"/>

--- a/draftpicks.xlsx
+++ b/draftpicks.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE1DA24-6391-4C4E-9C4C-B2EA9D048F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723C83D5-687E-4BD1-BC5B-A3986C13370F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15132" yWindow="2820" windowWidth="14028" windowHeight="11100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="draftpicks" sheetId="1" r:id="rId1"/>
     <sheet name="teams" sheetId="2" r:id="rId2"/>
     <sheet name="Names" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8639" uniqueCount="7851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9599" uniqueCount="7867">
   <si>
     <t>drafted</t>
   </si>
@@ -23543,9 +23543,6 @@
     <t>perpetual</t>
   </si>
   <si>
-    <t>chicago</t>
-  </si>
-  <si>
     <t>ds9</t>
   </si>
   <si>
@@ -23580,6 +23577,57 @@
   </si>
   <si>
     <t>lacugna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Belt </t>
+  </si>
+  <si>
+    <t>Cedric Mullins</t>
+  </si>
+  <si>
+    <t>Kumar Rocker</t>
+  </si>
+  <si>
+    <t>Austin Martin</t>
+  </si>
+  <si>
+    <t>Zac VEEN</t>
+  </si>
+  <si>
+    <t>George Kirby</t>
+  </si>
+  <si>
+    <t>Michael Taylor</t>
+  </si>
+  <si>
+    <t>Jack Leiter</t>
+  </si>
+  <si>
+    <t>Brennan Davis</t>
+  </si>
+  <si>
+    <t>Daniel Johnson</t>
+  </si>
+  <si>
+    <t>Yoelqui Cespedes</t>
+  </si>
+  <si>
+    <t>Corbin Carroll</t>
+  </si>
+  <si>
+    <t>Heston Kjerstad</t>
+  </si>
+  <si>
+    <t>Francisco Alvarez</t>
+  </si>
+  <si>
+    <t>Casey Martin</t>
+  </si>
+  <si>
+    <t>Tetsuto Yamada</t>
+  </si>
+  <si>
+    <t>Max Meyer</t>
   </si>
 </sst>
 </file>
@@ -23589,7 +23637,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0;[Red]\$#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -23600,6 +23648,18 @@
     <font>
       <sz val="8"/>
       <color rgb="FF3E3F40"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF55595C"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -23624,7 +23684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -23632,6 +23692,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23913,10 +23982,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F373"/>
+  <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G219" sqref="G219"/>
+    <sheetView tabSelected="1" topLeftCell="A514" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B527" sqref="B527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23926,21 +23995,22 @@
     <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="1024" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="1024" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7840</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7841</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7842</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
         <v>7843</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7844</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -24110,7 +24180,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>7840</v>
+        <v>7839</v>
       </c>
       <c r="E11" s="3">
         <v>44192</v>
@@ -24121,7 +24191,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7846</v>
+        <v>7845</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -24223,7 +24293,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7847</v>
+        <v>7846</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -24348,7 +24418,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>7840</v>
+        <v>7839</v>
       </c>
       <c r="E25" s="3">
         <v>44192</v>
@@ -24560,7 +24630,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>7838</v>
+        <v>308</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>45</v>
@@ -24577,7 +24647,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>7838</v>
+        <v>308</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>44</v>
@@ -24594,7 +24664,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>7838</v>
+        <v>308</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>573</v>
@@ -24611,7 +24681,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>7838</v>
+        <v>308</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>48</v>
@@ -24628,7 +24698,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>7838</v>
+        <v>308</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>47</v>
@@ -24645,7 +24715,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>7838</v>
+        <v>308</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>50</v>
@@ -24662,7 +24732,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>7838</v>
+        <v>308</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>49</v>
@@ -24679,7 +24749,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>7838</v>
+        <v>308</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>414</v>
@@ -24696,7 +24766,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>7838</v>
+        <v>308</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>571</v>
@@ -24713,7 +24783,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>7838</v>
+        <v>308</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>442</v>
@@ -24730,7 +24800,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>7838</v>
+        <v>308</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>46</v>
@@ -24747,7 +24817,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>7838</v>
+        <v>308</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>493</v>
@@ -24954,7 +25024,7 @@
         <v>92</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>7845</v>
+        <v>7844</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -25192,7 +25262,7 @@
         <v>79</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>7848</v>
+        <v>7847</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -25334,7 +25404,7 @@
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>7840</v>
+        <v>7839</v>
       </c>
       <c r="E83" s="3">
         <v>44192</v>
@@ -25342,7 +25412,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>7850</v>
+        <v>7849</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>454</v>
@@ -25359,7 +25429,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>7850</v>
+        <v>7849</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>116</v>
@@ -25376,7 +25446,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>7850</v>
+        <v>7849</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>105</v>
@@ -25393,7 +25463,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>7850</v>
+        <v>7849</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>110</v>
@@ -25410,7 +25480,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>7850</v>
+        <v>7849</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>106</v>
@@ -25427,7 +25497,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>7850</v>
+        <v>7849</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>112</v>
@@ -25444,7 +25514,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>7850</v>
+        <v>7849</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>113</v>
@@ -25461,7 +25531,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>7850</v>
+        <v>7849</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>503</v>
@@ -25478,7 +25548,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>7850</v>
+        <v>7849</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>108</v>
@@ -25495,7 +25565,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>7839</v>
+        <v>7838</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>181</v>
@@ -25512,7 +25582,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>7839</v>
+        <v>7838</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>132</v>
@@ -25529,7 +25599,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>7839</v>
+        <v>7838</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>5271</v>
@@ -25546,7 +25616,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>7839</v>
+        <v>7838</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>73</v>
@@ -25563,7 +25633,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>7839</v>
+        <v>7838</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>125</v>
@@ -25580,7 +25650,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>7839</v>
+        <v>7838</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>247</v>
@@ -25597,7 +25667,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>7839</v>
+        <v>7838</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>72</v>
@@ -25614,7 +25684,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>7839</v>
+        <v>7838</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>494</v>
@@ -25631,7 +25701,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>7839</v>
+        <v>7838</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>403</v>
@@ -25648,7 +25718,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>7839</v>
+        <v>7838</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>250</v>
@@ -25665,7 +25735,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>7839</v>
+        <v>7838</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>74</v>
@@ -25682,7 +25752,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>7839</v>
+        <v>7838</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>77</v>
@@ -25844,7 +25914,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>7840</v>
+        <v>7839</v>
       </c>
       <c r="E113" s="3">
         <v>44192</v>
@@ -26028,7 +26098,7 @@
         <v>131</v>
       </c>
       <c r="C124" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D124" t="s">
         <v>4</v>
@@ -26249,7 +26319,7 @@
         <v>148</v>
       </c>
       <c r="C137" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="s">
         <v>26</v>
@@ -27447,7 +27517,7 @@
       <c r="E207" s="3">
         <v>44196</v>
       </c>
-      <c r="F207" s="4"/>
+      <c r="F207" s="6"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
@@ -27465,11 +27535,11 @@
       <c r="E208" s="3">
         <v>44196</v>
       </c>
-      <c r="F208" s="4"/>
+      <c r="F208" s="6"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>7850</v>
+        <v>7849</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>408</v>
@@ -27483,11 +27553,11 @@
       <c r="E209" s="3">
         <v>44196</v>
       </c>
-      <c r="F209" s="4"/>
+      <c r="F209" s="6"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>7850</v>
+        <v>7849</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>347</v>
@@ -27501,7 +27571,7 @@
       <c r="E210" s="3">
         <v>44196</v>
       </c>
-      <c r="F210" s="4"/>
+      <c r="F210" s="6"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
@@ -27519,7 +27589,7 @@
       <c r="E211" s="3">
         <v>44196</v>
       </c>
-      <c r="F211" s="4"/>
+      <c r="F211" s="6"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
@@ -27537,14 +27607,14 @@
       <c r="E212" s="3">
         <v>44196</v>
       </c>
-      <c r="F212" s="4"/>
+      <c r="F212" s="6"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>154</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>7849</v>
+        <v>7848</v>
       </c>
       <c r="C213" s="2">
         <v>0</v>
@@ -27555,11 +27625,11 @@
       <c r="E213" s="3">
         <v>44196</v>
       </c>
-      <c r="F213" s="4"/>
+      <c r="F213" s="6"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>7838</v>
+        <v>308</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>37</v>
@@ -27573,7 +27643,7 @@
       <c r="E214" s="3">
         <v>44208</v>
       </c>
-      <c r="F214" s="4"/>
+      <c r="F214" s="6"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
@@ -27591,11 +27661,11 @@
       <c r="E215" s="3">
         <v>44208</v>
       </c>
-      <c r="F215" s="4"/>
+      <c r="F215" s="6"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>7839</v>
+        <v>7838</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>263</v>
@@ -27609,7 +27679,7 @@
       <c r="E216" s="3">
         <v>44208</v>
       </c>
-      <c r="F216" s="4"/>
+      <c r="F216" s="6"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
@@ -27627,7 +27697,7 @@
       <c r="E217" s="3">
         <v>44208</v>
       </c>
-      <c r="F217" s="4"/>
+      <c r="F217" s="6"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
@@ -27645,11 +27715,11 @@
       <c r="E218" s="3">
         <v>44208</v>
       </c>
-      <c r="F218" s="4"/>
+      <c r="F218" s="6"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>7850</v>
+        <v>7849</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>168</v>
@@ -27663,7 +27733,7 @@
       <c r="E219" s="3">
         <v>44208</v>
       </c>
-      <c r="F219" s="4"/>
+      <c r="F219" s="6"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
@@ -27681,7 +27751,7 @@
       <c r="E220" s="3">
         <v>44208</v>
       </c>
-      <c r="F220" s="4"/>
+      <c r="F220" s="6"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
@@ -27699,14 +27769,5743 @@
       <c r="E221" s="3">
         <v>44208</v>
       </c>
-      <c r="F221" s="4"/>
-    </row>
-    <row r="224" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="F221" s="6"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>92</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C222" s="2">
+        <v>29</v>
+      </c>
+      <c r="D222" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222" s="3">
+        <v>44209</v>
+      </c>
+      <c r="F222" s="6"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>117</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C223" s="2">
+        <v>31</v>
+      </c>
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" s="3">
+        <v>44209</v>
+      </c>
+      <c r="F223" s="6"/>
+    </row>
+    <row r="224" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>203</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C224" s="2">
+        <v>23</v>
+      </c>
+      <c r="D224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224" s="3">
+        <v>44209</v>
+      </c>
+      <c r="F224" s="6"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>129</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C225" s="2">
+        <v>25</v>
+      </c>
+      <c r="D225" t="s">
+        <v>20</v>
+      </c>
+      <c r="E225" s="3">
+        <v>44209</v>
+      </c>
+      <c r="F225" s="6"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>54</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>5344</v>
+      </c>
+      <c r="C226" s="2">
+        <v>8</v>
+      </c>
+      <c r="D226" t="s">
+        <v>4</v>
+      </c>
+      <c r="E226" s="3">
+        <v>44209</v>
+      </c>
+      <c r="F226" s="6"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>5258</v>
+      </c>
+      <c r="C227" s="2">
+        <v>22</v>
+      </c>
+      <c r="D227" t="s">
+        <v>7830</v>
+      </c>
+      <c r="E227" s="3">
+        <v>44209</v>
+      </c>
+      <c r="F227" s="6"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C228" s="2">
+        <v>24</v>
+      </c>
+      <c r="D228" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228" s="3">
+        <v>44209</v>
+      </c>
+      <c r="F228" s="6"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C229" s="2">
+        <v>29</v>
+      </c>
+      <c r="D229" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" s="3">
+        <v>44209</v>
+      </c>
+      <c r="F229" s="6"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>16</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C230" s="2">
+        <v>30</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7839</v>
+      </c>
+      <c r="E230" s="3">
+        <v>44210</v>
+      </c>
+      <c r="G230" s="4"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>203</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C231" s="2">
+        <v>25</v>
+      </c>
+      <c r="D231" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E231" s="3">
+        <v>44210</v>
+      </c>
+      <c r="G231" s="4"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>92</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C232" s="2">
+        <v>35</v>
+      </c>
+      <c r="D232" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232" s="3">
+        <v>44210</v>
+      </c>
+      <c r="G232" s="4"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>16</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C233" s="2">
+        <v>32</v>
+      </c>
+      <c r="D233" t="s">
+        <v>81</v>
+      </c>
+      <c r="E233" s="3">
+        <v>44210</v>
+      </c>
+      <c r="G233" s="4"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>117</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C234" s="2">
+        <v>13</v>
+      </c>
+      <c r="D234" t="s">
+        <v>7830</v>
+      </c>
+      <c r="E234" s="3">
+        <v>44210</v>
+      </c>
+      <c r="G234" s="4"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>129</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C235" s="2">
+        <v>20</v>
+      </c>
+      <c r="D235" t="s">
+        <v>7830</v>
+      </c>
+      <c r="E235" s="3">
+        <v>44210</v>
+      </c>
+      <c r="G235" s="4"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>215</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C236" s="2">
+        <v>9</v>
+      </c>
+      <c r="D236" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E236" s="3">
+        <v>44210</v>
+      </c>
+      <c r="G236" s="4"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>79</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C237" s="2">
+        <v>36</v>
+      </c>
+      <c r="D237" t="s">
+        <v>4</v>
+      </c>
+      <c r="E237" s="3">
+        <v>44210</v>
+      </c>
+      <c r="G237" s="4"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>178</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>5272</v>
+      </c>
+      <c r="C238" s="2">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E238" s="3">
+        <v>44211</v>
+      </c>
+      <c r="F238" s="6"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C239" s="2">
+        <v>25</v>
+      </c>
+      <c r="D239" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239" s="3">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>31</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C240" s="2">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" s="3">
+        <v>44211</v>
+      </c>
+      <c r="F240" s="6"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>117</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C241" s="2">
+        <v>14</v>
+      </c>
+      <c r="D241" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" s="3">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>31</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C242" s="2">
+        <v>19</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" s="3">
+        <v>44211</v>
+      </c>
+      <c r="F242" s="6"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>203</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C243" s="2">
+        <v>30</v>
+      </c>
+      <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" s="3">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C244" s="2">
+        <v>23</v>
+      </c>
+      <c r="D244" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E244" s="3">
+        <v>44211</v>
+      </c>
+      <c r="F244" s="6"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>215</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C245" s="2">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" s="3">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C246" s="2">
+        <v>19</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" s="3">
+        <v>44214</v>
+      </c>
+      <c r="F246" s="1"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>190</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C247" s="2">
+        <v>20</v>
+      </c>
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" s="3">
+        <v>44214</v>
+      </c>
+      <c r="F247" s="1"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C248" s="2">
+        <v>16</v>
+      </c>
+      <c r="D248" t="s">
+        <v>20</v>
+      </c>
+      <c r="E248" s="3">
+        <v>44214</v>
+      </c>
+      <c r="F248" s="1"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>154</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C249" s="2">
+        <v>17</v>
+      </c>
+      <c r="D249" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" s="3">
+        <v>44214</v>
+      </c>
+      <c r="F249" s="1"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>31</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C250" s="2">
+        <v>5</v>
+      </c>
+      <c r="D250" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" s="3">
+        <v>44214</v>
+      </c>
+      <c r="F250" s="1"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C251" s="2">
+        <v>22</v>
+      </c>
+      <c r="D251" t="s">
+        <v>4</v>
+      </c>
+      <c r="E251" s="3">
+        <v>44214</v>
+      </c>
+      <c r="F251" s="1"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>190</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C252" s="2">
+        <v>25</v>
+      </c>
+      <c r="D252" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" s="3">
+        <v>44214</v>
+      </c>
+      <c r="F252" s="1"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>178</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>5278</v>
+      </c>
+      <c r="C253" s="2">
+        <v>17</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E253" s="3">
+        <v>44214</v>
+      </c>
+      <c r="F253" s="1"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>117</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C254" s="2">
+        <v>13</v>
+      </c>
+      <c r="D254" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E254" s="3">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>178</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C255" s="2">
+        <v>16</v>
+      </c>
+      <c r="D255" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" s="3">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>178</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C256" s="2">
+        <v>17</v>
+      </c>
+      <c r="D256" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" s="3">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>178</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C257" s="2">
+        <v>15</v>
+      </c>
+      <c r="D257" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257" s="3">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>215</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C258" s="2">
+        <v>18</v>
+      </c>
+      <c r="D258" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258" s="3">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>178</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C259" s="2">
+        <v>20</v>
+      </c>
+      <c r="D259" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259" s="3">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>154</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C260" s="2">
+        <v>12</v>
+      </c>
+      <c r="D260" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E260" s="3">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>141</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C261" s="2">
+        <v>14</v>
+      </c>
+      <c r="D261" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E261" s="3">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>54</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C262" s="2">
+        <v>6</v>
+      </c>
+      <c r="D262" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262" s="3">
+        <v>44216</v>
+      </c>
+      <c r="F262" s="4"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>79</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C263" s="2">
+        <v>30</v>
+      </c>
+      <c r="D263" t="s">
+        <v>7830</v>
+      </c>
+      <c r="E263" s="3">
+        <v>44216</v>
+      </c>
+      <c r="F263" s="4"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>308</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C264" s="2">
+        <v>17</v>
+      </c>
+      <c r="D264" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" s="3">
+        <v>44216</v>
+      </c>
+      <c r="F264" s="4"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>31</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C265" s="2">
+        <v>23</v>
+      </c>
+      <c r="D265" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" s="3">
+        <v>44216</v>
+      </c>
+      <c r="F265" s="4"/>
+    </row>
+    <row r="266" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C266" s="2">
+        <v>16</v>
+      </c>
+      <c r="D266" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" s="3">
+        <v>44216</v>
+      </c>
+      <c r="F266" s="4"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>203</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267" s="2">
+        <v>13</v>
+      </c>
+      <c r="D267" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267" s="3">
+        <v>44216</v>
+      </c>
+      <c r="F267" s="4"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>92</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C268" s="2">
+        <v>28</v>
+      </c>
+      <c r="D268" t="s">
+        <v>7839</v>
+      </c>
+      <c r="E268" s="3">
+        <v>44216</v>
+      </c>
+      <c r="F268" s="4"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>16</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C269" s="2">
+        <v>19</v>
+      </c>
+      <c r="D269" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E269" s="3">
+        <v>44216</v>
+      </c>
+      <c r="F269" s="4"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>215</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C270" s="2">
+        <v>26</v>
+      </c>
+      <c r="D270" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E270" s="3">
+        <v>44217</v>
+      </c>
+      <c r="F270" s="4"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>141</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C271" s="2">
+        <v>8</v>
+      </c>
+      <c r="D271" t="s">
+        <v>20</v>
+      </c>
+      <c r="E271" s="3">
+        <v>44217</v>
+      </c>
+      <c r="F271" s="4"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>31</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C272" s="2">
+        <v>7</v>
+      </c>
+      <c r="D272" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E272" s="3">
+        <v>44217</v>
+      </c>
+      <c r="F272" s="4"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>308</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C273" s="2">
+        <v>9</v>
+      </c>
+      <c r="D273" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" s="3">
+        <v>44217</v>
+      </c>
+      <c r="F273" s="4"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>1</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C274" s="2">
+        <v>12</v>
+      </c>
+      <c r="D274" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" s="3">
+        <v>44217</v>
+      </c>
+      <c r="F274" s="4"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>117</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C275" s="2">
+        <v>20</v>
+      </c>
+      <c r="D275" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E275" s="3">
+        <v>44217</v>
+      </c>
+      <c r="F275" s="4"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>79</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C276" s="2">
+        <v>12</v>
+      </c>
+      <c r="D276" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276" s="3">
+        <v>44217</v>
+      </c>
+      <c r="F276" s="4"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>117</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C277" s="2">
+        <v>18</v>
+      </c>
+      <c r="D277" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" s="3">
+        <v>44217</v>
+      </c>
+      <c r="F277" s="4"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C278" s="2">
+        <v>27</v>
+      </c>
+      <c r="D278" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278" s="3">
+        <v>44218</v>
+      </c>
+      <c r="F278" s="4"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C279" s="2">
+        <v>25</v>
+      </c>
+      <c r="D279" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="3">
+        <v>44218</v>
+      </c>
+      <c r="F279" s="4"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>54</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>5279</v>
+      </c>
+      <c r="C280" s="2">
+        <v>7</v>
+      </c>
+      <c r="D280" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E280" s="3">
+        <v>44218</v>
+      </c>
+      <c r="F280" s="4"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C281" s="2">
+        <v>25</v>
+      </c>
+      <c r="D281" t="s">
+        <v>12</v>
+      </c>
+      <c r="E281" s="3">
+        <v>44218</v>
+      </c>
+      <c r="F281" s="4"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282" s="2">
+        <v>12</v>
+      </c>
+      <c r="D282" t="s">
+        <v>12</v>
+      </c>
+      <c r="E282" s="3">
+        <v>44218</v>
+      </c>
+      <c r="F282" s="4"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>16</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C283" s="2">
+        <v>17</v>
+      </c>
+      <c r="D283" t="s">
+        <v>12</v>
+      </c>
+      <c r="E283" s="3">
+        <v>44218</v>
+      </c>
+      <c r="F283" s="4"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C284" s="2">
+        <v>14</v>
+      </c>
+      <c r="D284" t="s">
+        <v>12</v>
+      </c>
+      <c r="E284" s="3">
+        <v>44218</v>
+      </c>
+      <c r="F284" s="4"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>31</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C285" s="2">
+        <v>19</v>
+      </c>
+      <c r="D285" t="s">
+        <v>12</v>
+      </c>
+      <c r="E285" s="3">
+        <v>44218</v>
+      </c>
+      <c r="F285" s="4"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>5268</v>
+      </c>
+      <c r="C286" s="2">
+        <v>9</v>
+      </c>
+      <c r="D286" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E286" s="3">
+        <v>44221</v>
+      </c>
+      <c r="F286" s="4"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>215</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C287" s="2">
+        <v>15</v>
+      </c>
+      <c r="D287" t="s">
+        <v>7830</v>
+      </c>
+      <c r="E287" s="3">
+        <v>44221</v>
+      </c>
+      <c r="F287" s="4"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>203</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C288" s="2">
+        <v>18</v>
+      </c>
+      <c r="D288" t="s">
+        <v>12</v>
+      </c>
+      <c r="E288" s="3">
+        <v>44221</v>
+      </c>
+      <c r="F288" s="4"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>141</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C289" s="2">
+        <v>17</v>
+      </c>
+      <c r="D289" t="s">
+        <v>81</v>
+      </c>
+      <c r="E289" s="3">
+        <v>44221</v>
+      </c>
+      <c r="F289" s="4"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C290" s="2">
+        <v>22</v>
+      </c>
+      <c r="D290" t="s">
+        <v>81</v>
+      </c>
+      <c r="E290" s="3">
+        <v>44221</v>
+      </c>
+      <c r="F290" s="4"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>117</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C291" s="2">
+        <v>14</v>
+      </c>
+      <c r="D291" t="s">
+        <v>12</v>
+      </c>
+      <c r="E291" s="3">
+        <v>44221</v>
+      </c>
+      <c r="F291" s="4"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>6557</v>
+      </c>
+      <c r="C292" s="2">
+        <v>2</v>
+      </c>
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="3">
+        <v>44221</v>
+      </c>
+      <c r="F292" s="4"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C293" s="2">
+        <v>23</v>
+      </c>
+      <c r="D293" t="s">
+        <v>12</v>
+      </c>
+      <c r="E293" s="3">
+        <v>44221</v>
+      </c>
+      <c r="F293" s="4"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C294" s="2">
+        <v>24</v>
+      </c>
+      <c r="D294" t="s">
+        <v>7839</v>
+      </c>
+      <c r="E294" s="3">
+        <v>44222</v>
+      </c>
+      <c r="F294" s="4"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>117</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C295" s="2">
+        <v>10</v>
+      </c>
+      <c r="D295" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E295" s="3">
+        <v>44222</v>
+      </c>
+      <c r="F295" s="4"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>203</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C296" s="2">
+        <v>20</v>
+      </c>
+      <c r="D296" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296" s="3">
+        <v>44222</v>
+      </c>
+      <c r="F296" s="4"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>129</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C297" s="2">
+        <v>8</v>
+      </c>
+      <c r="D297" t="s">
+        <v>12</v>
+      </c>
+      <c r="E297" s="3">
+        <v>44222</v>
+      </c>
+      <c r="F297" s="4"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>178</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C298" s="2">
+        <v>7</v>
+      </c>
+      <c r="D298" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298" s="3">
+        <v>44222</v>
+      </c>
+      <c r="F298" s="4"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>79</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>7780</v>
+      </c>
+      <c r="C299" s="2">
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="3">
+        <v>44222</v>
+      </c>
+      <c r="F299" s="4"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C300" s="2">
+        <v>9</v>
+      </c>
+      <c r="D300" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300" s="3">
+        <v>44222</v>
+      </c>
+      <c r="F300" s="4"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>141</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C301" s="2">
+        <v>7</v>
+      </c>
+      <c r="D301" t="s">
+        <v>7</v>
+      </c>
+      <c r="E301" s="3">
+        <v>44222</v>
+      </c>
+      <c r="F301" s="4"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>129</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C302" s="2">
+        <v>16</v>
+      </c>
+      <c r="D302" t="s">
+        <v>12</v>
+      </c>
+      <c r="E302" s="3">
+        <v>44223</v>
+      </c>
+      <c r="F302" s="4"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>1</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C303" s="2">
+        <v>7</v>
+      </c>
+      <c r="D303" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E303" s="3">
+        <v>44223</v>
+      </c>
+      <c r="F303" s="4"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>54</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C304" s="2">
+        <v>19</v>
+      </c>
+      <c r="D304" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E304" s="3">
+        <v>44223</v>
+      </c>
+      <c r="F304" s="4"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>308</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C305" s="2">
+        <v>16</v>
+      </c>
+      <c r="D305" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305" s="3">
+        <v>44223</v>
+      </c>
+      <c r="F305" s="4"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>178</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C306" s="2">
+        <v>12</v>
+      </c>
+      <c r="D306" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" s="3">
+        <v>44223</v>
+      </c>
+      <c r="F306" s="4"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>1</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C307" s="2">
+        <v>18</v>
+      </c>
+      <c r="D307" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" s="3">
+        <v>44223</v>
+      </c>
+      <c r="F307" s="4"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>178</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C308" s="2">
+        <v>9</v>
+      </c>
+      <c r="D308" t="s">
+        <v>12</v>
+      </c>
+      <c r="E308" s="3">
+        <v>44223</v>
+      </c>
+      <c r="F308" s="4"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>1</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C309" s="2">
+        <v>20</v>
+      </c>
+      <c r="D309" t="s">
+        <v>12</v>
+      </c>
+      <c r="E309" s="3">
+        <v>44223</v>
+      </c>
+      <c r="F309" s="4"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>178</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C310" s="2">
+        <v>12</v>
+      </c>
+      <c r="D310" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" s="3">
+        <v>44224</v>
+      </c>
+      <c r="F310" s="4"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>215</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C311" s="2">
+        <v>26</v>
+      </c>
+      <c r="D311" t="s">
+        <v>7839</v>
+      </c>
+      <c r="E311" s="3">
+        <v>44224</v>
+      </c>
+      <c r="F311" s="4"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>31</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C312" s="2">
+        <v>19</v>
+      </c>
+      <c r="D312" t="s">
+        <v>12</v>
+      </c>
+      <c r="E312" s="3">
+        <v>44224</v>
+      </c>
+      <c r="F312" s="4"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>308</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313" s="2">
+        <v>28</v>
+      </c>
+      <c r="D313" t="s">
+        <v>7</v>
+      </c>
+      <c r="E313" s="3">
+        <v>44224</v>
+      </c>
+      <c r="F313" s="4"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>16</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C314" s="2">
+        <v>8</v>
+      </c>
+      <c r="D314" t="s">
+        <v>12</v>
+      </c>
+      <c r="E314" s="3">
+        <v>44224</v>
+      </c>
+      <c r="F314" s="4"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>215</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C315" s="2">
+        <v>19</v>
+      </c>
+      <c r="D315" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E315" s="3">
+        <v>44224</v>
+      </c>
+      <c r="F315" s="4"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>308</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C316" s="2">
+        <v>8</v>
+      </c>
+      <c r="D316" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E316" s="3">
+        <v>44224</v>
+      </c>
+      <c r="F316" s="4"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C317" s="2">
+        <v>21</v>
+      </c>
+      <c r="D317" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E317" s="3">
+        <v>44224</v>
+      </c>
+      <c r="F317" s="4"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>129</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C318" s="2">
+        <v>13</v>
+      </c>
+      <c r="D318" t="s">
+        <v>7</v>
+      </c>
+      <c r="E318" s="3">
+        <v>44225</v>
+      </c>
+      <c r="F318" s="1"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>178</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C319" s="2">
+        <v>8</v>
+      </c>
+      <c r="D319" t="s">
+        <v>12</v>
+      </c>
+      <c r="E319" s="3">
+        <v>44225</v>
+      </c>
+      <c r="F319" s="1"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C320" s="2">
+        <v>6</v>
+      </c>
+      <c r="D320" t="s">
+        <v>12</v>
+      </c>
+      <c r="E320" s="3">
+        <v>44225</v>
+      </c>
+      <c r="F320" s="1"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>1</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C321" s="2">
+        <v>6</v>
+      </c>
+      <c r="D321" t="s">
+        <v>12</v>
+      </c>
+      <c r="E321" s="3">
+        <v>44225</v>
+      </c>
+      <c r="F321" s="1"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>16</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C322" s="2">
+        <v>10</v>
+      </c>
+      <c r="D322" t="s">
+        <v>12</v>
+      </c>
+      <c r="E322" s="3">
+        <v>44225</v>
+      </c>
+      <c r="F322" s="1"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C323" s="2">
+        <v>12</v>
+      </c>
+      <c r="D323" t="s">
+        <v>7</v>
+      </c>
+      <c r="E323" s="3">
+        <v>44225</v>
+      </c>
+      <c r="F323" s="1"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>308</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C324" s="2">
+        <v>9</v>
+      </c>
+      <c r="D324" t="s">
+        <v>7839</v>
+      </c>
+      <c r="E324" s="3">
+        <v>44225</v>
+      </c>
+      <c r="F324" s="1"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>308</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C325" s="2">
+        <v>13</v>
+      </c>
+      <c r="D325" t="s">
+        <v>7</v>
+      </c>
+      <c r="E325" s="3">
+        <v>44225</v>
+      </c>
+      <c r="F325" s="1"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>178</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C326" s="2">
+        <v>9</v>
+      </c>
+      <c r="D326" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E326" s="3">
+        <v>44228</v>
+      </c>
+      <c r="F326" s="4"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>16</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C327" s="2">
+        <v>10</v>
+      </c>
+      <c r="D327" t="s">
+        <v>7</v>
+      </c>
+      <c r="E327" s="3">
+        <v>44228</v>
+      </c>
+      <c r="F327" s="4"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>141</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>6891</v>
+      </c>
+      <c r="C328" s="2">
+        <v>4</v>
+      </c>
+      <c r="D328" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E328" s="3">
+        <v>44228</v>
+      </c>
+      <c r="F328" s="4"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>31</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C329" s="2">
+        <v>16</v>
+      </c>
+      <c r="D329" t="s">
+        <v>12</v>
+      </c>
+      <c r="E329" s="3">
+        <v>44228</v>
+      </c>
+      <c r="F329" s="4"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>129</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C330" s="2">
+        <v>9</v>
+      </c>
+      <c r="D330" t="s">
+        <v>7</v>
+      </c>
+      <c r="E330" s="3">
+        <v>44228</v>
+      </c>
+      <c r="F330" s="4"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>141</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C331" s="2">
+        <v>7</v>
+      </c>
+      <c r="D331" t="s">
+        <v>7</v>
+      </c>
+      <c r="E331" s="3">
+        <v>44228</v>
+      </c>
+      <c r="F331" s="4"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>308</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C332" s="2">
+        <v>10</v>
+      </c>
+      <c r="D332" t="s">
+        <v>12</v>
+      </c>
+      <c r="E332" s="3">
+        <v>44228</v>
+      </c>
+      <c r="F332" s="4"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>117</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C333" s="2">
+        <v>7</v>
+      </c>
+      <c r="D333" t="s">
+        <v>12</v>
+      </c>
+      <c r="E333" s="3">
+        <v>44228</v>
+      </c>
+      <c r="F333" s="4"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>54</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>5260</v>
+      </c>
+      <c r="C334" s="2">
+        <v>6</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E334" s="3">
+        <v>44229</v>
+      </c>
+      <c r="F334" s="1"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>79</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C335" s="2">
+        <v>7</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E335" s="3">
+        <v>44229</v>
+      </c>
+      <c r="F335" s="1"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>129</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C336" s="2">
+        <v>11</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E336" s="3">
+        <v>44229</v>
+      </c>
+      <c r="F336" s="1"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>54</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C337" s="2">
+        <v>20</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E337" s="3">
+        <v>44229</v>
+      </c>
+      <c r="F337" s="1"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>79</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C338" s="2">
+        <v>11</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E338" s="3">
+        <v>44229</v>
+      </c>
+      <c r="F338" s="1"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C339" s="2">
+        <v>24</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>7839</v>
+      </c>
+      <c r="E339" s="3">
+        <v>44229</v>
+      </c>
+      <c r="F339" s="1"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C340" s="2">
+        <v>11</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E340" s="3">
+        <v>44229</v>
+      </c>
+      <c r="F340" s="1"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>203</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>5290</v>
+      </c>
+      <c r="C341" s="2">
+        <v>6</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E341" s="3">
+        <v>44229</v>
+      </c>
+      <c r="F341" s="1"/>
+    </row>
+    <row r="342" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>141</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C342" s="2">
+        <v>10</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E342" s="3">
+        <v>44230</v>
+      </c>
+      <c r="F342" s="7"/>
+    </row>
+    <row r="343" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C343" s="2">
+        <v>11</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>7830</v>
+      </c>
+      <c r="E343" s="3">
+        <v>44230</v>
+      </c>
+      <c r="F343" s="7"/>
+    </row>
+    <row r="344" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>92</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C344" s="2">
+        <v>6</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E344" s="3">
+        <v>44230</v>
+      </c>
+      <c r="F344" s="7"/>
+    </row>
+    <row r="345" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>203</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C345" s="2">
+        <v>4</v>
+      </c>
+      <c r="D345" t="s">
+        <v>12</v>
+      </c>
+      <c r="E345" s="3">
+        <v>44230</v>
+      </c>
+      <c r="F345" s="7"/>
+    </row>
+    <row r="346" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>31</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>5264</v>
+      </c>
+      <c r="C346" s="2">
+        <v>8</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E346" s="3">
+        <v>44230</v>
+      </c>
+      <c r="F346" s="7"/>
+    </row>
+    <row r="347" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>141</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C347" s="2">
+        <v>7</v>
+      </c>
+      <c r="D347" t="s">
+        <v>7839</v>
+      </c>
+      <c r="E347" s="3">
+        <v>44230</v>
+      </c>
+      <c r="F347" s="7"/>
+    </row>
+    <row r="348" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>79</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C348" s="2">
+        <v>12</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E348" s="3">
+        <v>44230</v>
+      </c>
+      <c r="F348" s="7"/>
+    </row>
+    <row r="349" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>79</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C349" s="2">
+        <v>17</v>
+      </c>
+      <c r="D349" t="s">
+        <v>12</v>
+      </c>
+      <c r="E349" s="3">
+        <v>44230</v>
+      </c>
+      <c r="F349" s="7"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>154</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C350" s="2">
+        <v>8</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E350" s="3">
+        <v>44231</v>
+      </c>
+      <c r="F350" s="4"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>54</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C351" s="2">
+        <v>17</v>
+      </c>
+      <c r="D351" t="s">
+        <v>12</v>
+      </c>
+      <c r="E351" s="3">
+        <v>44231</v>
+      </c>
+      <c r="F351" s="4"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>203</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C352" s="2">
+        <v>8</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E352" s="3">
+        <v>44231</v>
+      </c>
+      <c r="F352" s="4"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>215</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C353" s="2">
+        <v>4</v>
+      </c>
+      <c r="D353" t="s">
+        <v>12</v>
+      </c>
+      <c r="E353" s="3">
+        <v>44231</v>
+      </c>
+      <c r="F353" s="4"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C354" s="2">
+        <v>6</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E354" s="3">
+        <v>44231</v>
+      </c>
+      <c r="F354" s="4"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>178</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C355" s="2">
+        <v>6</v>
+      </c>
+      <c r="D355" t="s">
+        <v>7839</v>
+      </c>
+      <c r="E355" s="3">
+        <v>44231</v>
+      </c>
+      <c r="F355" s="4"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>7082</v>
+      </c>
+      <c r="C356" s="2">
+        <v>3</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E356" s="3">
+        <v>44231</v>
+      </c>
+      <c r="F356" s="4"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>190</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C357" s="2">
+        <v>5</v>
+      </c>
+      <c r="D357" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E357" s="3">
+        <v>44231</v>
+      </c>
+      <c r="F357" s="4"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>215</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C358" s="2">
+        <v>6</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E358" s="3">
+        <v>44232</v>
+      </c>
+      <c r="F358" s="4"/>
+    </row>
+    <row r="359" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>203</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C359" s="2">
+        <v>6</v>
+      </c>
+      <c r="D359" t="s">
+        <v>12</v>
+      </c>
+      <c r="E359" s="3">
+        <v>44232</v>
+      </c>
+      <c r="F359" s="4"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>203</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C360" s="2">
+        <v>15</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E360" s="3">
+        <v>44232</v>
+      </c>
+      <c r="F360" s="4"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>190</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>4799</v>
+      </c>
+      <c r="C361" s="2">
+        <v>9</v>
+      </c>
+      <c r="D361" t="s">
+        <v>12</v>
+      </c>
+      <c r="E361" s="3">
+        <v>44232</v>
+      </c>
+      <c r="F361" s="4"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>92</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C362" s="2">
+        <v>6</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E362" s="3">
+        <v>44232</v>
+      </c>
+      <c r="F362" s="4"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>141</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C363" s="2">
+        <v>7</v>
+      </c>
+      <c r="D363" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E363" s="3">
+        <v>44232</v>
+      </c>
+      <c r="F363" s="4"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>308</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C364" s="2">
+        <v>7</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E364" s="3">
+        <v>44232</v>
+      </c>
+      <c r="F364" s="4"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>54</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C365" s="2">
+        <v>9</v>
+      </c>
+      <c r="D365" t="s">
+        <v>7</v>
+      </c>
+      <c r="E365" s="3">
+        <v>44232</v>
+      </c>
+      <c r="F365" s="4"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>215</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C366" s="2">
+        <v>4</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E366" s="3">
+        <v>44235</v>
+      </c>
+      <c r="F366" s="4"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C367" s="2">
+        <v>3</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E367" s="3">
+        <v>44235</v>
+      </c>
+      <c r="F367" s="4"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>31</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C368" s="2">
+        <v>5</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E368" s="3">
+        <v>44235</v>
+      </c>
+      <c r="F368" s="4"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>31</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C369" s="2">
+        <v>5</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E369" s="3">
+        <v>44235</v>
+      </c>
+      <c r="F369" s="4"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>54</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C370" s="2">
+        <v>4</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E370" s="3">
+        <v>44235</v>
+      </c>
+      <c r="F370" s="4"/>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>308</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C371" s="2">
+        <v>10</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E371" s="3">
+        <v>44235</v>
+      </c>
+      <c r="F371" s="4"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>178</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C372" s="2">
+        <v>10</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E372" s="3">
+        <v>44235</v>
+      </c>
+      <c r="F372" s="4"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>1</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C373" s="2">
+        <v>10</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E373" s="3">
+        <v>44235</v>
+      </c>
+      <c r="F373" s="4"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>16</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="C374" s="2">
+        <v>1</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E374" s="3">
+        <v>44236</v>
+      </c>
+      <c r="F374" s="1"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>1</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C375" s="2">
+        <v>4</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E375" s="3">
+        <v>44236</v>
+      </c>
+      <c r="F375" s="1"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>215</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C376" s="2">
+        <v>4</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E376" s="3">
+        <v>44236</v>
+      </c>
+      <c r="F376" s="1"/>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>190</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C377" s="2">
+        <v>4</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E377" s="3">
+        <v>44236</v>
+      </c>
+      <c r="F377" s="1"/>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>16</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C378" s="2">
+        <v>2</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E378" s="3">
+        <v>44236</v>
+      </c>
+      <c r="F378" s="1"/>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>308</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C379" s="2">
+        <v>6</v>
+      </c>
+      <c r="D379" t="s">
+        <v>12</v>
+      </c>
+      <c r="E379" s="3">
+        <v>44236</v>
+      </c>
+      <c r="F379" s="1"/>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>5222</v>
+      </c>
+      <c r="C380" s="2">
+        <v>1</v>
+      </c>
+      <c r="D380" t="s">
+        <v>12</v>
+      </c>
+      <c r="E380" s="3">
+        <v>44236</v>
+      </c>
+      <c r="F380" s="1"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>154</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C381" s="2">
+        <v>3</v>
+      </c>
+      <c r="D381" t="s">
+        <v>12</v>
+      </c>
+      <c r="E381" s="3">
+        <v>44236</v>
+      </c>
+      <c r="F381" s="1"/>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>1</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C382" s="2">
+        <v>4</v>
+      </c>
+      <c r="D382" t="s">
+        <v>4</v>
+      </c>
+      <c r="E382" s="3">
+        <v>44237</v>
+      </c>
+      <c r="F382" s="8"/>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C383" s="2">
+        <v>2</v>
+      </c>
+      <c r="D383" t="s">
+        <v>12</v>
+      </c>
+      <c r="E383" s="3">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>308</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C384" s="2">
+        <v>5</v>
+      </c>
+      <c r="D384" t="s">
+        <v>12</v>
+      </c>
+      <c r="E384" s="3">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>178</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>5277</v>
+      </c>
+      <c r="C385" s="2">
+        <v>9</v>
+      </c>
+      <c r="D385" t="s">
+        <v>4</v>
+      </c>
+      <c r="E385" s="3">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C386" s="2">
+        <v>2</v>
+      </c>
+      <c r="D386" t="s">
+        <v>12</v>
+      </c>
+      <c r="E386" s="3">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>31</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C387" s="2">
+        <v>9</v>
+      </c>
+      <c r="D387" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E387" s="3">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>92</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C388" s="2">
+        <v>2</v>
+      </c>
+      <c r="D388" t="s">
+        <v>7</v>
+      </c>
+      <c r="E388" s="3">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>79</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C389" s="2">
+        <v>5</v>
+      </c>
+      <c r="D389" t="s">
+        <v>12</v>
+      </c>
+      <c r="E389" s="3">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>203</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C390" s="2">
+        <v>4</v>
+      </c>
+      <c r="D390" t="s">
+        <v>12</v>
+      </c>
+      <c r="E390" s="3">
+        <v>44238</v>
+      </c>
+      <c r="F390" s="1"/>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>31</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C391" s="2">
+        <v>7</v>
+      </c>
+      <c r="D391" t="s">
+        <v>12</v>
+      </c>
+      <c r="E391" s="3">
+        <v>44238</v>
+      </c>
+      <c r="F391" s="1"/>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>129</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C392" s="2">
+        <v>6</v>
+      </c>
+      <c r="D392" t="s">
+        <v>7</v>
+      </c>
+      <c r="E392" s="3">
+        <v>44238</v>
+      </c>
+      <c r="F392" s="1"/>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>190</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C393" s="2">
+        <v>7</v>
+      </c>
+      <c r="D393" t="s">
+        <v>12</v>
+      </c>
+      <c r="E393" s="3">
+        <v>44238</v>
+      </c>
+      <c r="F393" s="1"/>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C394" s="2">
+        <v>6</v>
+      </c>
+      <c r="D394" t="s">
+        <v>7</v>
+      </c>
+      <c r="E394" s="3">
+        <v>44238</v>
+      </c>
+      <c r="F394" s="1"/>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>154</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>7850</v>
+      </c>
+      <c r="C395" s="2">
+        <v>7</v>
+      </c>
+      <c r="D395" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E395" s="3">
+        <v>44238</v>
+      </c>
+      <c r="F395" s="1"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>117</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C396" s="2">
+        <v>1</v>
+      </c>
+      <c r="D396" t="s">
+        <v>12</v>
+      </c>
+      <c r="E396" s="3">
+        <v>44238</v>
+      </c>
+      <c r="F396" s="1"/>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C397" s="2">
+        <v>3</v>
+      </c>
+      <c r="D397" t="s">
+        <v>12</v>
+      </c>
+      <c r="E397" s="3">
+        <v>44238</v>
+      </c>
+      <c r="F397" s="1"/>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C398" s="2">
+        <v>1</v>
+      </c>
+      <c r="D398" t="s">
+        <v>12</v>
+      </c>
+      <c r="E398" s="3">
+        <v>44239</v>
+      </c>
+      <c r="F398" s="9"/>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>215</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C399" s="2">
+        <v>6</v>
+      </c>
+      <c r="D399" t="s">
+        <v>12</v>
+      </c>
+      <c r="E399" s="3">
+        <v>44239</v>
+      </c>
+      <c r="F399" s="9"/>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>141</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C400" s="2">
+        <v>5</v>
+      </c>
+      <c r="D400" t="s">
+        <v>12</v>
+      </c>
+      <c r="E400" s="3">
+        <v>44239</v>
+      </c>
+      <c r="F400" s="9"/>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>154</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C401" s="2">
+        <v>6</v>
+      </c>
+      <c r="D401" t="s">
+        <v>7839</v>
+      </c>
+      <c r="E401" s="3">
+        <v>44239</v>
+      </c>
+      <c r="F401" s="9"/>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>16</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C402" s="2">
+        <v>2</v>
+      </c>
+      <c r="D402" t="s">
+        <v>12</v>
+      </c>
+      <c r="E402" s="3">
+        <v>44239</v>
+      </c>
+      <c r="F402" s="9"/>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>92</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C403" s="2">
+        <v>1</v>
+      </c>
+      <c r="D403" t="s">
+        <v>12</v>
+      </c>
+      <c r="E403" s="3">
+        <v>44239</v>
+      </c>
+      <c r="F403" s="9"/>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>1</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C404" s="2">
+        <v>8</v>
+      </c>
+      <c r="D404" t="s">
+        <v>12</v>
+      </c>
+      <c r="E404" s="3">
+        <v>44239</v>
+      </c>
+      <c r="F404" s="9"/>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>54</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>3628</v>
+      </c>
+      <c r="C405" s="2">
+        <v>1</v>
+      </c>
+      <c r="D405" t="s">
+        <v>12</v>
+      </c>
+      <c r="E405" s="3">
+        <v>44239</v>
+      </c>
+      <c r="F405" s="9"/>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>154</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C406" s="2">
+        <v>5</v>
+      </c>
+      <c r="D406" t="s">
+        <v>20</v>
+      </c>
+      <c r="E406" s="3">
+        <v>44242</v>
+      </c>
+      <c r="F406" s="4"/>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>190</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>5274</v>
+      </c>
+      <c r="C407" s="2">
+        <v>6</v>
+      </c>
+      <c r="D407" t="s">
+        <v>7839</v>
+      </c>
+      <c r="E407" s="3">
+        <v>44242</v>
+      </c>
+      <c r="F407" s="4"/>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>31</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C408" s="2">
+        <v>3</v>
+      </c>
+      <c r="D408" t="s">
+        <v>7</v>
+      </c>
+      <c r="E408" s="3">
+        <v>44242</v>
+      </c>
+      <c r="F408" s="4"/>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>16</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C409" s="2">
+        <v>5</v>
+      </c>
+      <c r="D409" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E409" s="3">
+        <v>44242</v>
+      </c>
+      <c r="F409" s="4"/>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>1</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="C410" s="2">
+        <v>3</v>
+      </c>
+      <c r="D410" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E410" s="3">
+        <v>44242</v>
+      </c>
+      <c r="F410" s="4"/>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>31</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C411" s="2">
+        <v>9</v>
+      </c>
+      <c r="D411" t="s">
+        <v>7</v>
+      </c>
+      <c r="E411" s="3">
+        <v>44242</v>
+      </c>
+      <c r="F411" s="4"/>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>203</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="C412" s="2">
+        <v>5</v>
+      </c>
+      <c r="D412" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E412" s="3">
+        <v>44242</v>
+      </c>
+      <c r="F412" s="4"/>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>54</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>7851</v>
+      </c>
+      <c r="C413" s="2">
+        <v>4</v>
+      </c>
+      <c r="D413" t="s">
+        <v>7</v>
+      </c>
+      <c r="E413" s="3">
+        <v>44242</v>
+      </c>
+      <c r="F413" s="4"/>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>117</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C414" s="2">
+        <v>3</v>
+      </c>
+      <c r="D414" t="s">
+        <v>12</v>
+      </c>
+      <c r="E414" s="3">
+        <v>44243</v>
+      </c>
+      <c r="F414" s="4"/>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>54</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C415" s="2">
+        <v>3</v>
+      </c>
+      <c r="D415" t="s">
+        <v>7839</v>
+      </c>
+      <c r="E415" s="3">
+        <v>44243</v>
+      </c>
+      <c r="F415" s="4"/>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>1</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C416" s="2">
+        <v>7</v>
+      </c>
+      <c r="D416" t="s">
+        <v>12</v>
+      </c>
+      <c r="E416" s="3">
+        <v>44243</v>
+      </c>
+      <c r="F416" s="4"/>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>190</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C417" s="2">
+        <v>3</v>
+      </c>
+      <c r="D417" t="s">
+        <v>12</v>
+      </c>
+      <c r="E417" s="3">
+        <v>44243</v>
+      </c>
+      <c r="F417" s="4"/>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>117</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C418" s="2">
+        <v>2</v>
+      </c>
+      <c r="D418" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E418" s="3">
+        <v>44243</v>
+      </c>
+      <c r="F418" s="4"/>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C419" s="2">
+        <v>1</v>
+      </c>
+      <c r="D419" t="s">
+        <v>12</v>
+      </c>
+      <c r="E419" s="3">
+        <v>44243</v>
+      </c>
+      <c r="F419" s="4"/>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>154</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C420" s="2">
+        <v>3</v>
+      </c>
+      <c r="D420" t="s">
+        <v>12</v>
+      </c>
+      <c r="E420" s="3">
+        <v>44243</v>
+      </c>
+      <c r="F420" s="4"/>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>92</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C421" s="2">
+        <v>2</v>
+      </c>
+      <c r="D421" t="s">
+        <v>12</v>
+      </c>
+      <c r="E421" s="3">
+        <v>44243</v>
+      </c>
+      <c r="F421" s="4"/>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C422" s="2">
+        <v>3</v>
+      </c>
+      <c r="D422" t="s">
+        <v>12</v>
+      </c>
+      <c r="E422" s="3">
+        <v>44244</v>
+      </c>
+      <c r="F422" s="4"/>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>54</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C423" s="2">
+        <v>1</v>
+      </c>
+      <c r="D423" t="s">
+        <v>12</v>
+      </c>
+      <c r="E423" s="3">
+        <v>44244</v>
+      </c>
+      <c r="F423" s="4"/>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>79</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>5315</v>
+      </c>
+      <c r="C424" s="2">
+        <v>2</v>
+      </c>
+      <c r="D424" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E424" s="3">
+        <v>44244</v>
+      </c>
+      <c r="F424" s="4"/>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>215</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C425" s="2">
+        <v>2</v>
+      </c>
+      <c r="D425" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E425" s="3">
+        <v>44244</v>
+      </c>
+      <c r="F425" s="4"/>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>16</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>7813</v>
+      </c>
+      <c r="C426" s="2">
+        <v>1</v>
+      </c>
+      <c r="D426" t="s">
+        <v>7</v>
+      </c>
+      <c r="E426" s="3">
+        <v>44244</v>
+      </c>
+      <c r="F426" s="4"/>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>215</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C427" s="2">
+        <v>5</v>
+      </c>
+      <c r="D427" t="s">
+        <v>7</v>
+      </c>
+      <c r="E427" s="3">
+        <v>44244</v>
+      </c>
+      <c r="F427" s="4"/>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>203</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>5314</v>
+      </c>
+      <c r="C428" s="2">
+        <v>1</v>
+      </c>
+      <c r="D428" t="s">
+        <v>7839</v>
+      </c>
+      <c r="E428" s="3">
+        <v>44244</v>
+      </c>
+      <c r="F428" s="4"/>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>154</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C429" s="2">
+        <v>5</v>
+      </c>
+      <c r="D429" t="s">
+        <v>7</v>
+      </c>
+      <c r="E429" s="3">
+        <v>44244</v>
+      </c>
+      <c r="F429" s="4"/>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>117</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C430" s="2">
+        <v>4</v>
+      </c>
+      <c r="D430" t="s">
+        <v>7</v>
+      </c>
+      <c r="E430" s="3">
+        <v>44245</v>
+      </c>
+      <c r="F430" s="4"/>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C431" s="2">
+        <v>1</v>
+      </c>
+      <c r="D431" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E431" s="3">
+        <v>44245</v>
+      </c>
+      <c r="F431" s="4"/>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>141</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C432" s="2">
+        <v>3</v>
+      </c>
+      <c r="D432" t="s">
+        <v>12</v>
+      </c>
+      <c r="E432" s="3">
+        <v>44245</v>
+      </c>
+      <c r="F432" s="4"/>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>215</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C433" s="2">
+        <v>5</v>
+      </c>
+      <c r="D433" t="s">
+        <v>7</v>
+      </c>
+      <c r="E433" s="3">
+        <v>44245</v>
+      </c>
+      <c r="F433" s="4"/>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>141</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C434" s="2">
+        <v>3</v>
+      </c>
+      <c r="D434" t="s">
+        <v>7</v>
+      </c>
+      <c r="E434" s="3">
+        <v>44245</v>
+      </c>
+      <c r="F434" s="4"/>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>190</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C435" s="2">
+        <v>2</v>
+      </c>
+      <c r="D435" t="s">
+        <v>12</v>
+      </c>
+      <c r="E435" s="3">
+        <v>44245</v>
+      </c>
+      <c r="F435" s="4"/>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>154</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C436" s="2">
+        <v>4</v>
+      </c>
+      <c r="D436" t="s">
+        <v>12</v>
+      </c>
+      <c r="E436" s="3">
+        <v>44245</v>
+      </c>
+      <c r="F436" s="4"/>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C437" s="2">
+        <v>1</v>
+      </c>
+      <c r="D437" t="s">
+        <v>12</v>
+      </c>
+      <c r="E437" s="3">
+        <v>44245</v>
+      </c>
+      <c r="F437" s="4"/>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>54</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>5398</v>
+      </c>
+      <c r="C438" s="2">
+        <v>1</v>
+      </c>
+      <c r="D438" t="s">
+        <v>7</v>
+      </c>
+      <c r="E438" s="3">
+        <v>44246</v>
+      </c>
+      <c r="F438" s="4"/>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>79</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>5269</v>
+      </c>
+      <c r="C439" s="2">
+        <v>4</v>
+      </c>
+      <c r="D439" t="s">
+        <v>7</v>
+      </c>
+      <c r="E439" s="3">
+        <v>44246</v>
+      </c>
+      <c r="F439" s="4"/>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>308</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C440" s="2">
+        <v>3</v>
+      </c>
+      <c r="D440" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E440" s="3">
+        <v>44246</v>
+      </c>
+      <c r="F440" s="4"/>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>129</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C441" s="2">
+        <v>2</v>
+      </c>
+      <c r="D441" t="s">
+        <v>7839</v>
+      </c>
+      <c r="E441" s="3">
+        <v>44246</v>
+      </c>
+      <c r="F441" s="4"/>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>129</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C442" s="2">
+        <v>2</v>
+      </c>
+      <c r="D442" t="s">
+        <v>12</v>
+      </c>
+      <c r="E442" s="3">
+        <v>44246</v>
+      </c>
+      <c r="F442" s="4"/>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>117</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C443" s="2">
+        <v>2</v>
+      </c>
+      <c r="D443" t="s">
+        <v>7</v>
+      </c>
+      <c r="E443" s="3">
+        <v>44246</v>
+      </c>
+      <c r="F443" s="4"/>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>190</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C444" s="2">
+        <v>1</v>
+      </c>
+      <c r="D444" t="s">
+        <v>12</v>
+      </c>
+      <c r="E444" s="3">
+        <v>44246</v>
+      </c>
+      <c r="F444" s="4"/>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C445" s="2">
+        <v>1</v>
+      </c>
+      <c r="D445" t="s">
+        <v>7830</v>
+      </c>
+      <c r="E445" s="3">
+        <v>44246</v>
+      </c>
+      <c r="F445" s="4"/>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>190</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C446" s="2">
+        <v>4</v>
+      </c>
+      <c r="D446" t="s">
+        <v>81</v>
+      </c>
+      <c r="E446" s="3">
+        <v>44247</v>
+      </c>
+      <c r="F446" s="4"/>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>141</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C447" s="2">
+        <v>3</v>
+      </c>
+      <c r="D447" t="s">
+        <v>12</v>
+      </c>
+      <c r="E447" s="3">
+        <v>44247</v>
+      </c>
+      <c r="F447" s="4"/>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C448" s="2">
+        <v>3</v>
+      </c>
+      <c r="D448" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E448" s="3">
+        <v>44247</v>
+      </c>
+      <c r="F448" s="4"/>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>92</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C449" s="2">
+        <v>2</v>
+      </c>
+      <c r="D449" t="s">
+        <v>12</v>
+      </c>
+      <c r="E449" s="3">
+        <v>44247</v>
+      </c>
+      <c r="F449" s="4"/>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C450" s="2">
+        <v>3</v>
+      </c>
+      <c r="D450" t="s">
+        <v>7</v>
+      </c>
+      <c r="E450" s="3">
+        <v>44247</v>
+      </c>
+      <c r="F450" s="4"/>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>154</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C451" s="2">
+        <v>2</v>
+      </c>
+      <c r="D451" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E451" s="3">
+        <v>44247</v>
+      </c>
+      <c r="F451" s="4"/>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>54</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C452" s="2">
+        <v>1</v>
+      </c>
+      <c r="D452" t="s">
+        <v>12</v>
+      </c>
+      <c r="E452" s="3">
+        <v>44247</v>
+      </c>
+      <c r="F452" s="4"/>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>79</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>5431</v>
+      </c>
+      <c r="C453" s="2">
+        <v>2</v>
+      </c>
+      <c r="D453" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E453" s="3">
+        <v>44247</v>
+      </c>
+      <c r="F453" s="4"/>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>154</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C454" s="2">
+        <v>2</v>
+      </c>
+      <c r="D454" t="s">
+        <v>7</v>
+      </c>
+      <c r="E454" s="3">
+        <v>44248</v>
+      </c>
+      <c r="F454" s="4"/>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>190</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C455" s="2">
+        <v>3</v>
+      </c>
+      <c r="D455" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E455" s="3">
+        <v>44248</v>
+      </c>
+      <c r="F455" s="4"/>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>308</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C456" s="2">
+        <v>4</v>
+      </c>
+      <c r="D456" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E456" s="3">
+        <v>44248</v>
+      </c>
+      <c r="F456" s="4"/>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>154</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C457" s="2">
+        <v>3</v>
+      </c>
+      <c r="D457" t="s">
+        <v>4</v>
+      </c>
+      <c r="E457" s="3">
+        <v>44248</v>
+      </c>
+      <c r="F457" s="4"/>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>141</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>4766</v>
+      </c>
+      <c r="C458" s="2">
+        <v>1</v>
+      </c>
+      <c r="D458" t="s">
+        <v>12</v>
+      </c>
+      <c r="E458" s="3">
+        <v>44248</v>
+      </c>
+      <c r="F458" s="4"/>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>129</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C459" s="2">
+        <v>1</v>
+      </c>
+      <c r="D459" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E459" s="3">
+        <v>44248</v>
+      </c>
+      <c r="F459" s="4"/>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C460" s="2">
+        <v>5</v>
+      </c>
+      <c r="D460" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E460" s="3">
+        <v>44248</v>
+      </c>
+      <c r="F460" s="4"/>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>154</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C461" s="2">
+        <v>2</v>
+      </c>
+      <c r="D461" t="s">
+        <v>12</v>
+      </c>
+      <c r="E461" s="3">
+        <v>44248</v>
+      </c>
+      <c r="F461" s="4"/>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>129</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C462" s="2">
+        <v>3</v>
+      </c>
+      <c r="D462" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E462" s="3">
+        <v>44249</v>
+      </c>
+      <c r="F462" s="1"/>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>79</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C463" s="2">
+        <v>1</v>
+      </c>
+      <c r="D463" t="s">
+        <v>12</v>
+      </c>
+      <c r="E463" s="3">
+        <v>44249</v>
+      </c>
+      <c r="F463" s="1"/>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>16</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C464" s="2">
+        <v>1</v>
+      </c>
+      <c r="D464" t="s">
+        <v>7</v>
+      </c>
+      <c r="E464" s="3">
+        <v>44249</v>
+      </c>
+      <c r="F464" s="1"/>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>190</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C465" s="2">
+        <v>1</v>
+      </c>
+      <c r="D465" t="s">
+        <v>7</v>
+      </c>
+      <c r="E465" s="3">
+        <v>44249</v>
+      </c>
+      <c r="F465" s="1"/>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>154</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C466" s="2">
+        <v>3</v>
+      </c>
+      <c r="D466" t="s">
+        <v>7</v>
+      </c>
+      <c r="E466" s="3">
+        <v>44249</v>
+      </c>
+      <c r="F466" s="1"/>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>129</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>5390</v>
+      </c>
+      <c r="C467" s="2">
+        <v>1</v>
+      </c>
+      <c r="D467" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E467" s="3">
+        <v>44249</v>
+      </c>
+      <c r="F467" s="1"/>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C468" s="2">
+        <v>4</v>
+      </c>
+      <c r="D468" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E468" s="3">
+        <v>44249</v>
+      </c>
+      <c r="F468" s="1"/>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>92</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C469" s="2">
+        <v>1</v>
+      </c>
+      <c r="D469" t="s">
+        <v>12</v>
+      </c>
+      <c r="E469" s="3">
+        <v>44249</v>
+      </c>
+      <c r="F469" s="1"/>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>6652</v>
+      </c>
+      <c r="C470" s="2">
+        <v>1</v>
+      </c>
+      <c r="D470" t="s">
+        <v>7839</v>
+      </c>
+      <c r="E470" s="3">
+        <v>44250</v>
+      </c>
+      <c r="F470" s="4"/>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>79</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C471" s="2">
+        <v>1</v>
+      </c>
+      <c r="D471" t="s">
+        <v>12</v>
+      </c>
+      <c r="E471" s="3">
+        <v>44250</v>
+      </c>
+      <c r="F471" s="4"/>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>190</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>7852</v>
+      </c>
+      <c r="C472" s="2">
+        <v>1</v>
+      </c>
+      <c r="D472" t="s">
+        <v>12</v>
+      </c>
+      <c r="E472" s="3">
+        <v>44250</v>
+      </c>
+      <c r="F472" s="4"/>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>129</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C473" s="2">
+        <v>1</v>
+      </c>
+      <c r="D473" t="s">
+        <v>12</v>
+      </c>
+      <c r="E473" s="3">
+        <v>44250</v>
+      </c>
+      <c r="F473" s="4"/>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C474" s="2">
+        <v>1</v>
+      </c>
+      <c r="D474" t="s">
+        <v>12</v>
+      </c>
+      <c r="E474" s="3">
+        <v>44250</v>
+      </c>
+      <c r="F474" s="4"/>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>92</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C475" s="2">
+        <v>1</v>
+      </c>
+      <c r="D475" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E475" s="3">
+        <v>44250</v>
+      </c>
+      <c r="F475" s="4"/>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>7853</v>
+      </c>
+      <c r="C476" s="2">
+        <v>1</v>
+      </c>
+      <c r="D476" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E476" s="3">
+        <v>44251</v>
+      </c>
+      <c r="F476" s="4"/>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>79</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>6482</v>
+      </c>
+      <c r="C477" s="2">
+        <v>1</v>
+      </c>
+      <c r="D477" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E477" s="3">
+        <v>44251</v>
+      </c>
+      <c r="F477" s="4"/>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>129</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C478" s="2">
+        <v>1</v>
+      </c>
+      <c r="D478" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E478" s="3">
+        <v>44251</v>
+      </c>
+      <c r="F478" s="4"/>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>5411</v>
+      </c>
+      <c r="C479" s="2">
+        <v>1</v>
+      </c>
+      <c r="D479" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E479" s="3">
+        <v>44251</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>92</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C480" s="2">
+        <v>1</v>
+      </c>
+      <c r="D480" t="s">
+        <v>81</v>
+      </c>
+      <c r="E480" s="3">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>92</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C481" s="2">
+        <v>1</v>
+      </c>
+      <c r="D481" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E481" s="3">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>92</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C482" s="2">
+        <v>1</v>
+      </c>
+      <c r="D482" t="s">
+        <v>7</v>
+      </c>
+      <c r="E482" s="3">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>92</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>7854</v>
+      </c>
+      <c r="C483" s="2">
+        <v>1</v>
+      </c>
+      <c r="D483" t="s">
+        <v>7</v>
+      </c>
+      <c r="E483" s="3">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>117</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C484" s="2">
+        <v>0</v>
+      </c>
+      <c r="D484" t="s">
+        <v>26</v>
+      </c>
+      <c r="E484" s="3">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>141</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C485" s="2">
+        <v>0</v>
+      </c>
+      <c r="D485" t="s">
+        <v>26</v>
+      </c>
+      <c r="E485" s="3">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>7855</v>
+      </c>
+      <c r="C486" s="2">
+        <v>0</v>
+      </c>
+      <c r="D486" t="s">
+        <v>26</v>
+      </c>
+      <c r="E486" s="3">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>117</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C487" s="2">
+        <v>0</v>
+      </c>
+      <c r="D487" t="s">
+        <v>26</v>
+      </c>
+      <c r="E487" s="3">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>190</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C488" s="2">
+        <v>0</v>
+      </c>
+      <c r="D488" t="s">
+        <v>26</v>
+      </c>
+      <c r="E488" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F488" s="1"/>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>1</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>5353</v>
+      </c>
+      <c r="C489" s="2">
+        <v>0</v>
+      </c>
+      <c r="D489" t="s">
+        <v>26</v>
+      </c>
+      <c r="E489" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F489" s="1"/>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>308</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C490" s="2">
+        <v>0</v>
+      </c>
+      <c r="D490" t="s">
+        <v>26</v>
+      </c>
+      <c r="E490" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F490" s="1"/>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>79</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C491" s="2">
+        <v>0</v>
+      </c>
+      <c r="D491" t="s">
+        <v>26</v>
+      </c>
+      <c r="E491" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F491" s="1"/>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>129</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>7856</v>
+      </c>
+      <c r="C492" s="2">
+        <v>0</v>
+      </c>
+      <c r="D492" t="s">
+        <v>26</v>
+      </c>
+      <c r="E492" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F492" s="1"/>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>215</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C493" s="2">
+        <v>0</v>
+      </c>
+      <c r="D493" t="s">
+        <v>26</v>
+      </c>
+      <c r="E493" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F493" s="1"/>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>117</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C494" s="2">
+        <v>0</v>
+      </c>
+      <c r="D494" t="s">
+        <v>26</v>
+      </c>
+      <c r="E494" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F494" s="1"/>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>7859</v>
+      </c>
+      <c r="C495" s="2">
+        <v>0</v>
+      </c>
+      <c r="D495" t="s">
+        <v>26</v>
+      </c>
+      <c r="E495" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F495" s="1"/>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C496" s="2">
+        <v>0</v>
+      </c>
+      <c r="D496" t="s">
+        <v>26</v>
+      </c>
+      <c r="E496" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F496" s="1"/>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>31</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C497" s="2">
+        <v>0</v>
+      </c>
+      <c r="D497" t="s">
+        <v>26</v>
+      </c>
+      <c r="E497" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F497" s="1"/>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>129</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>7857</v>
+      </c>
+      <c r="C498" s="2">
+        <v>0</v>
+      </c>
+      <c r="D498" t="s">
+        <v>26</v>
+      </c>
+      <c r="E498" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F498" s="1"/>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>141</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>7826</v>
+      </c>
+      <c r="C499" s="2">
+        <v>0</v>
+      </c>
+      <c r="D499" t="s">
+        <v>26</v>
+      </c>
+      <c r="E499" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F499" s="1"/>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>7858</v>
+      </c>
+      <c r="C500" s="2">
+        <v>0</v>
+      </c>
+      <c r="D500" t="s">
+        <v>26</v>
+      </c>
+      <c r="E500" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F500" s="1"/>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>215</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>5334</v>
+      </c>
+      <c r="C501" s="2">
+        <v>0</v>
+      </c>
+      <c r="D501" t="s">
+        <v>26</v>
+      </c>
+      <c r="E501" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F501" s="1"/>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>16</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C502" s="2">
+        <v>0</v>
+      </c>
+      <c r="D502" t="s">
+        <v>26</v>
+      </c>
+      <c r="E502" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F502" s="1"/>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>92</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>7829</v>
+      </c>
+      <c r="C503" s="2">
+        <v>0</v>
+      </c>
+      <c r="D503" t="s">
+        <v>26</v>
+      </c>
+      <c r="E503" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F503" s="1"/>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>215</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C504" s="2">
+        <v>0</v>
+      </c>
+      <c r="D504" t="s">
+        <v>26</v>
+      </c>
+      <c r="E504" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F504" s="1"/>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>203</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>5369</v>
+      </c>
+      <c r="C505" s="2">
+        <v>0</v>
+      </c>
+      <c r="D505" t="s">
+        <v>26</v>
+      </c>
+      <c r="E505" s="3">
+        <v>44254</v>
+      </c>
+      <c r="F505" s="1"/>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>203</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>5311</v>
+      </c>
+      <c r="C506" s="2">
+        <v>0</v>
+      </c>
+      <c r="D506" t="s">
+        <v>26</v>
+      </c>
+      <c r="E506" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F506" s="1"/>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>178</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>7740</v>
+      </c>
+      <c r="C507" s="2">
+        <v>0</v>
+      </c>
+      <c r="D507" t="s">
+        <v>26</v>
+      </c>
+      <c r="E507" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F507" s="1"/>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>92</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C508" s="2">
+        <v>0</v>
+      </c>
+      <c r="D508" t="s">
+        <v>26</v>
+      </c>
+      <c r="E508" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F508" s="1"/>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>308</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C509" s="2">
+        <v>0</v>
+      </c>
+      <c r="D509" t="s">
+        <v>26</v>
+      </c>
+      <c r="E509" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F509" s="1"/>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>203</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C510" s="2">
+        <v>0</v>
+      </c>
+      <c r="D510" t="s">
+        <v>26</v>
+      </c>
+      <c r="E510" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F510" s="1"/>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>117</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>7860</v>
+      </c>
+      <c r="C511" s="2">
+        <v>0</v>
+      </c>
+      <c r="D511" t="s">
+        <v>26</v>
+      </c>
+      <c r="E511" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F511" s="1"/>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>215</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C512" s="2">
+        <v>0</v>
+      </c>
+      <c r="D512" t="s">
+        <v>26</v>
+      </c>
+      <c r="E512" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F512" s="1"/>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>129</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>7861</v>
+      </c>
+      <c r="C513" s="2">
+        <v>0</v>
+      </c>
+      <c r="D513" t="s">
+        <v>26</v>
+      </c>
+      <c r="E513" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F513" s="1"/>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>31</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C514" s="2">
+        <v>0</v>
+      </c>
+      <c r="D514" t="s">
+        <v>26</v>
+      </c>
+      <c r="E514" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F514" s="1"/>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C515" s="2">
+        <v>0</v>
+      </c>
+      <c r="D515" t="s">
+        <v>26</v>
+      </c>
+      <c r="E515" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F515" s="1"/>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C516" s="2">
+        <v>0</v>
+      </c>
+      <c r="D516" t="s">
+        <v>26</v>
+      </c>
+      <c r="E516" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F516" s="1"/>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>117</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C517" s="2">
+        <v>0</v>
+      </c>
+      <c r="D517" t="s">
+        <v>26</v>
+      </c>
+      <c r="E517" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F517" s="1"/>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C518" s="2">
+        <v>0</v>
+      </c>
+      <c r="D518" t="s">
+        <v>26</v>
+      </c>
+      <c r="E518" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F518" s="1"/>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>54</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>7862</v>
+      </c>
+      <c r="C519" s="2">
+        <v>0</v>
+      </c>
+      <c r="D519" t="s">
+        <v>26</v>
+      </c>
+      <c r="E519" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F519" s="1"/>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>79</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C520" s="2">
+        <v>0</v>
+      </c>
+      <c r="D520" t="s">
+        <v>26</v>
+      </c>
+      <c r="E520" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F520" s="1"/>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>308</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C521" s="2">
+        <v>0</v>
+      </c>
+      <c r="D521" t="s">
+        <v>26</v>
+      </c>
+      <c r="E521" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F521" s="1"/>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>1</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C522" s="2">
+        <v>0</v>
+      </c>
+      <c r="D522" t="s">
+        <v>26</v>
+      </c>
+      <c r="E522" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F522" s="1"/>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>31</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C523" s="2">
+        <v>0</v>
+      </c>
+      <c r="D523" t="s">
+        <v>26</v>
+      </c>
+      <c r="E523" s="3">
+        <v>44255</v>
+      </c>
+      <c r="F523" s="1"/>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>31</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>5286</v>
+      </c>
+      <c r="C524" s="2">
+        <v>0</v>
+      </c>
+      <c r="D524" t="s">
+        <v>26</v>
+      </c>
+      <c r="E524" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F524" s="4"/>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>1</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C525" s="2">
+        <v>0</v>
+      </c>
+      <c r="D525" t="s">
+        <v>26</v>
+      </c>
+      <c r="E525" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F525" s="4"/>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>308</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>7863</v>
+      </c>
+      <c r="C526" s="2">
+        <v>0</v>
+      </c>
+      <c r="D526" t="s">
+        <v>26</v>
+      </c>
+      <c r="E526" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F526" s="4"/>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>79</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>5325</v>
+      </c>
+      <c r="C527" s="2">
+        <v>0</v>
+      </c>
+      <c r="D527" t="s">
+        <v>26</v>
+      </c>
+      <c r="E527" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F527" s="4"/>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>54</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>7864</v>
+      </c>
+      <c r="C528" s="2">
+        <v>0</v>
+      </c>
+      <c r="D528" t="s">
+        <v>26</v>
+      </c>
+      <c r="E528" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F528" s="4"/>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>215</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C529" s="2">
+        <v>0</v>
+      </c>
+      <c r="D529" t="s">
+        <v>26</v>
+      </c>
+      <c r="E529" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F529" s="4"/>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>117</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>7865</v>
+      </c>
+      <c r="C530" s="2">
+        <v>0</v>
+      </c>
+      <c r="D530" t="s">
+        <v>26</v>
+      </c>
+      <c r="E530" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F530" s="4"/>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>31</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C531" s="2">
+        <v>0</v>
+      </c>
+      <c r="D531" t="s">
+        <v>26</v>
+      </c>
+      <c r="E531" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F531" s="4"/>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>215</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C532" s="2">
+        <v>0</v>
+      </c>
+      <c r="D532" t="s">
+        <v>26</v>
+      </c>
+      <c r="E532" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F532" s="4"/>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>129</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C533" s="2">
+        <v>0</v>
+      </c>
+      <c r="D533" t="s">
+        <v>26</v>
+      </c>
+      <c r="E533" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F533" s="4"/>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>129</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C534" s="2">
+        <v>0</v>
+      </c>
+      <c r="D534" t="s">
+        <v>26</v>
+      </c>
+      <c r="E534" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F534" s="4"/>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>129</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C535" s="2">
+        <v>0</v>
+      </c>
+      <c r="D535" t="s">
+        <v>26</v>
+      </c>
+      <c r="E535" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F535" s="4"/>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>129</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C536" s="2">
+        <v>0</v>
+      </c>
+      <c r="D536" t="s">
+        <v>26</v>
+      </c>
+      <c r="E536" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F536" s="4"/>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>7866</v>
+      </c>
+      <c r="C537" s="2">
+        <v>0</v>
+      </c>
+      <c r="D537" t="s">
+        <v>26</v>
+      </c>
+      <c r="E537" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F537" s="4"/>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>16</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C538" s="2">
+        <v>0</v>
+      </c>
+      <c r="D538" t="s">
+        <v>26</v>
+      </c>
+      <c r="E538" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F538" s="4"/>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>190</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>5265</v>
+      </c>
+      <c r="C539" s="2">
+        <v>0</v>
+      </c>
+      <c r="D539" t="s">
+        <v>26</v>
+      </c>
+      <c r="E539" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F539" s="4"/>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>178</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C540" s="2">
+        <v>0</v>
+      </c>
+      <c r="D540" t="s">
+        <v>26</v>
+      </c>
+      <c r="E540" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F540" s="4"/>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>203</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>5300</v>
+      </c>
+      <c r="C541" s="2">
+        <v>0</v>
+      </c>
+      <c r="D541" t="s">
+        <v>26</v>
+      </c>
+      <c r="E541" s="3">
+        <v>44256</v>
+      </c>
+      <c r="F541" s="4"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E474">
-    <sortCondition ref="A2:A474"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E446">
+    <sortCondition ref="A2:A446"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
